--- a/SIMMR QPA/QPAFeb19.xlsx
+++ b/SIMMR QPA/QPAFeb19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes_Analysis_2017_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E594377-7B91-4B4A-9488-2D8277D623CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49133B-AC91-4E32-9281-84E97DF7A7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +88,6 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,18 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -449,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,442 +456,508 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>-36.756</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4.2510000000000003</v>
+      <c r="A2">
+        <v>-32.5</v>
+      </c>
+      <c r="B2">
+        <v>2.31</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>-37.433999999999997</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.8340000000000001</v>
+      <c r="A3">
+        <v>-32.47</v>
+      </c>
+      <c r="B3">
+        <v>2.68</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>-36.71</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.0970000000000004</v>
+      <c r="A4">
+        <v>-32.130000000000003</v>
+      </c>
+      <c r="B4">
+        <v>2.93</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.8659999999999997</v>
+      <c r="A5">
+        <v>-28.4</v>
+      </c>
+      <c r="B5">
+        <v>3.34</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>-32.804000000000002</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6.4390000000000001</v>
+      <c r="A6">
+        <v>-27.84</v>
+      </c>
+      <c r="B6">
+        <v>3.43</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>-32.68</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6.1150000000000002</v>
+      <c r="A7">
+        <v>-28.16</v>
+      </c>
+      <c r="B7">
+        <v>2.81</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>-27.004000000000001</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4.1980000000000004</v>
+      <c r="A8">
+        <v>-28.08</v>
+      </c>
+      <c r="B8">
+        <v>3.35</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>-27.401</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4.5120000000000005</v>
+      <c r="A9">
+        <v>-27.34</v>
+      </c>
+      <c r="B9">
+        <v>3.57</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>-29.545000000000002</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4.8760000000000003</v>
+      <c r="A10">
+        <v>-26.97</v>
+      </c>
+      <c r="B10">
+        <v>4.25</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>-29.685000000000002</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.2480000000000002</v>
+      <c r="A11">
+        <v>-27.42</v>
+      </c>
+      <c r="B11">
+        <v>3.8</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>-29.943000000000001</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.0599999999999996</v>
+      <c r="A12">
+        <v>-27.24</v>
+      </c>
+      <c r="B12">
+        <v>3.82</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>-27.963000000000001</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.391</v>
+      <c r="A13">
+        <v>-27.47</v>
+      </c>
+      <c r="B13">
+        <v>3.95</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>-27.364000000000001</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3.1840000000000002</v>
+      <c r="A14">
+        <v>-27.51</v>
+      </c>
+      <c r="B14">
+        <v>3.63</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>-27.358000000000001</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.456</v>
+      <c r="A15">
+        <v>-28.29</v>
+      </c>
+      <c r="B15">
+        <v>2.77</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>-30.552</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4.272214285714286</v>
+      <c r="A16">
+        <v>-28.37</v>
+      </c>
+      <c r="B16">
+        <v>2.96</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-27.86</v>
+      </c>
+      <c r="B17">
+        <v>2.41</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-28.01</v>
+      </c>
+      <c r="B18">
+        <v>2.99</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-26.75</v>
+      </c>
+      <c r="B19">
+        <v>4.72</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>-30.803000000000001</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4.4734285714285713</v>
-      </c>
-      <c r="C17">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-26.76</v>
+      </c>
+      <c r="B20">
+        <v>4.54</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>-30.321000000000002</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4.6046428571428573</v>
-      </c>
-      <c r="C18">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-26.69</v>
+      </c>
+      <c r="B21">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C21">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>-23.167000000000002</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4.9715000000000007</v>
-      </c>
-      <c r="C19">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-26.87</v>
+      </c>
+      <c r="B22">
+        <v>4.68</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-24.93</v>
+      </c>
+      <c r="B23">
+        <v>5.24</v>
+      </c>
+      <c r="C23">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>-25.385999999999999</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.878714285714286</v>
-      </c>
-      <c r="C20">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-24.19</v>
+      </c>
+      <c r="B24">
+        <v>5.18</v>
+      </c>
+      <c r="C24">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>-29.868000000000002</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5.1069285714285719</v>
-      </c>
-      <c r="C21">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-24.61</v>
+      </c>
+      <c r="B25">
+        <v>4.82</v>
+      </c>
+      <c r="C25">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>-23.632999999999999</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4.6941428571428574</v>
-      </c>
-      <c r="C22">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-25.32</v>
+      </c>
+      <c r="B26">
+        <v>5.28</v>
+      </c>
+      <c r="C26">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>-24.010999999999999</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4.8803571428571431</v>
-      </c>
-      <c r="C23">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-24.26</v>
+      </c>
+      <c r="B27">
+        <v>5.01</v>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>-25.344000000000001</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4.5665714285714287</v>
-      </c>
-      <c r="C24">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-24.05</v>
+      </c>
+      <c r="B28">
+        <v>4.75</v>
+      </c>
+      <c r="C28">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>-26.310928571428569</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="C25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-23.98</v>
+      </c>
+      <c r="B29">
+        <v>4.32</v>
+      </c>
+      <c r="C29">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>-25.692857142857143</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4.008</v>
-      </c>
-      <c r="C26">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-23.96</v>
+      </c>
+      <c r="B30">
+        <v>4.57</v>
+      </c>
+      <c r="C30">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>-23.783999999999999</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6.6820000000000004</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>-25.126000000000001</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6.5549999999999997</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>-26.733999999999998</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6.1549999999999994</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>-27.044999999999998</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5.6709999999999994</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>-25.594999999999999</v>
-      </c>
-      <c r="B31" s="3">
-        <v>6.4930000000000003</v>
+      <c r="A31">
+        <v>-25.89</v>
+      </c>
+      <c r="B31">
+        <v>6.1</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>-26.594000000000001</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6.8710000000000004</v>
+      <c r="A32">
+        <v>-25.79</v>
+      </c>
+      <c r="B32">
+        <v>5.97</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>-25.478999999999999</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5.8409999999999993</v>
+      <c r="A33">
+        <v>-25.78</v>
+      </c>
+      <c r="B33">
+        <v>6.03</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>-25.483357142857145</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6.4020000000000001</v>
+      <c r="A34">
+        <v>-25.74</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>-26.404285714285713</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5.3890000000000002</v>
+      <c r="A35">
+        <v>-25.23</v>
+      </c>
+      <c r="B35">
+        <v>4.67</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>-25.383214285714281</v>
-      </c>
-      <c r="B36" s="3">
-        <v>6.0439999999999996</v>
+      <c r="A36">
+        <v>-25.33</v>
+      </c>
+      <c r="B36">
+        <v>4.6900000000000004</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>-27.028000000000002</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5.4978571428571428</v>
+      <c r="A37">
+        <v>-25.29</v>
+      </c>
+      <c r="B37">
+        <v>4.6900000000000004</v>
       </c>
       <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-25.25</v>
+      </c>
+      <c r="B38">
+        <v>4.79</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-26.3</v>
+      </c>
+      <c r="B39">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-26.15</v>
+      </c>
+      <c r="B40">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-26.23</v>
+      </c>
+      <c r="B41">
+        <v>5.04</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-26.27</v>
+      </c>
+      <c r="B42">
+        <v>5.01</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-25.69</v>
+      </c>
+      <c r="B43">
+        <v>6.09</v>
+      </c>
+      <c r="C43">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>-26.958000000000002</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4.8730714285714285</v>
-      </c>
-      <c r="C38">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-25.61</v>
+      </c>
+      <c r="B44">
+        <v>5.74</v>
+      </c>
+      <c r="C44">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>-27.053000000000001</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4.8792857142857144</v>
-      </c>
-      <c r="C39">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-25.77</v>
+      </c>
+      <c r="B45">
+        <v>5.4</v>
+      </c>
+      <c r="C45">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>-22</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C46" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>-42</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B47" s="2">
         <v>20</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C47" s="3">
         <v>13</v>
       </c>
     </row>

--- a/SIMMR QPA/QPAFeb19.xlsx
+++ b/SIMMR QPA/QPAFeb19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49133B-AC91-4E32-9281-84E97DF7A7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B3B6AE-DF52-41ED-8350-B171FE644E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="4068" yWindow="2520" windowWidth="17280" windowHeight="8964" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -115,12 +121,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,508 +469,442 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-32.5</v>
-      </c>
-      <c r="B2">
-        <v>2.31</v>
+      <c r="A2" s="5">
+        <v>-36.756</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4.2510000000000003</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-32.47</v>
-      </c>
-      <c r="B3">
-        <v>2.68</v>
+      <c r="A3" s="5">
+        <v>-37.433999999999997</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.8340000000000001</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-32.130000000000003</v>
-      </c>
-      <c r="B4">
-        <v>2.93</v>
+      <c r="A4" s="5">
+        <v>-36.71</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0970000000000004</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-28.4</v>
-      </c>
-      <c r="B5">
-        <v>3.34</v>
+      <c r="A5" s="5">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.8659999999999997</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-27.84</v>
-      </c>
-      <c r="B6">
-        <v>3.43</v>
+      <c r="A6" s="5">
+        <v>-32.804000000000002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6.4390000000000001</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-28.16</v>
-      </c>
-      <c r="B7">
-        <v>2.81</v>
+      <c r="A7" s="5">
+        <v>-32.68</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.1150000000000002</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-28.08</v>
-      </c>
-      <c r="B8">
-        <v>3.35</v>
+      <c r="A8" s="5">
+        <v>-27.004000000000001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.1980000000000004</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-27.34</v>
-      </c>
-      <c r="B9">
-        <v>3.57</v>
+      <c r="A9" s="5">
+        <v>-27.401</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.5120000000000005</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>-26.97</v>
-      </c>
-      <c r="B10">
-        <v>4.25</v>
+      <c r="A10" s="5">
+        <v>-29.545000000000002</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.8760000000000003</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>-27.42</v>
-      </c>
-      <c r="B11">
-        <v>3.8</v>
+      <c r="A11" s="5">
+        <v>-29.685000000000002</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.2480000000000002</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>-27.24</v>
-      </c>
-      <c r="B12">
-        <v>3.82</v>
+      <c r="A12" s="5">
+        <v>-29.943000000000001</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5.0599999999999996</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>-27.47</v>
-      </c>
-      <c r="B13">
-        <v>3.95</v>
+      <c r="A13" s="5">
+        <v>-27.963000000000001</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.391</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>-27.51</v>
-      </c>
-      <c r="B14">
-        <v>3.63</v>
+      <c r="A14" s="5">
+        <v>-27.364000000000001</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.1840000000000002</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>-28.29</v>
-      </c>
-      <c r="B15">
-        <v>2.77</v>
+      <c r="A15" s="5">
+        <v>-27.358000000000001</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.456</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>-28.37</v>
-      </c>
-      <c r="B16">
-        <v>2.96</v>
+      <c r="A16" s="5">
+        <v>-30.552</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.272214285714286</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>-27.86</v>
-      </c>
-      <c r="B17">
-        <v>2.41</v>
+      <c r="A17" s="5">
+        <v>-30.803000000000001</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4.4734285714285713</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>-28.01</v>
-      </c>
-      <c r="B18">
-        <v>2.99</v>
+      <c r="A18" s="5">
+        <v>-30.321000000000002</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.6046428571428573</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>-26.75</v>
-      </c>
-      <c r="B19">
-        <v>4.72</v>
+      <c r="A19" s="5">
+        <v>-23.167000000000002</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4.9715000000000007</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>-26.76</v>
-      </c>
-      <c r="B20">
-        <v>4.54</v>
+      <c r="A20" s="5">
+        <v>-25.385999999999999</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.878714285714286</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>-26.69</v>
-      </c>
-      <c r="B21">
-        <v>4.6900000000000004</v>
+      <c r="A21" s="5">
+        <v>-29.868000000000002</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.1069285714285719</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>-26.87</v>
-      </c>
-      <c r="B22">
-        <v>4.68</v>
+      <c r="A22" s="5">
+        <v>-23.632999999999999</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4.6941428571428574</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>-24.93</v>
-      </c>
-      <c r="B23">
-        <v>5.24</v>
+      <c r="A23" s="5">
+        <v>-24.010999999999999</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4.8803571428571431</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>-24.19</v>
-      </c>
-      <c r="B24">
-        <v>5.18</v>
+      <c r="A24" s="5">
+        <v>-25.344000000000001</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4.5665714285714287</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>-24.61</v>
-      </c>
-      <c r="B25">
-        <v>4.82</v>
+      <c r="A25" s="5">
+        <v>-26.310928571428569</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4.3849999999999998</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>-25.32</v>
-      </c>
-      <c r="B26">
-        <v>5.28</v>
+      <c r="A26" s="5">
+        <v>-25.692857142857143</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.008</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>-24.26</v>
-      </c>
-      <c r="B27">
-        <v>5.01</v>
+      <c r="A27" s="5">
+        <v>-23.783999999999999</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.6820000000000004</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-24.05</v>
-      </c>
-      <c r="B28">
-        <v>4.75</v>
+      <c r="A28" s="5">
+        <v>-25.126000000000001</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.5549999999999997</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>-23.98</v>
-      </c>
-      <c r="B29">
-        <v>4.32</v>
+      <c r="A29" s="5">
+        <v>-26.733999999999998</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6.1549999999999994</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-23.96</v>
-      </c>
-      <c r="B30">
-        <v>4.57</v>
+      <c r="A30" s="5">
+        <v>-27.044999999999998</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.6709999999999994</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>-25.89</v>
-      </c>
-      <c r="B31">
-        <v>6.1</v>
+      <c r="A31" s="5">
+        <v>-25.594999999999999</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.4930000000000003</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-25.79</v>
-      </c>
-      <c r="B32">
-        <v>5.97</v>
+      <c r="A32" s="5">
+        <v>-26.594000000000001</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6.8710000000000004</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>-25.78</v>
-      </c>
-      <c r="B33">
-        <v>6.03</v>
+      <c r="A33" s="5">
+        <v>-25.478999999999999</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.8409999999999993</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>-25.74</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
+      <c r="A34" s="5">
+        <v>-25.483357142857145</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6.4020000000000001</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>-25.23</v>
-      </c>
-      <c r="B35">
-        <v>4.67</v>
+      <c r="A35" s="5">
+        <v>-26.404285714285713</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5.3890000000000002</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>-25.33</v>
-      </c>
-      <c r="B36">
-        <v>4.6900000000000004</v>
+      <c r="A36" s="5">
+        <v>-25.383214285714281</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.0439999999999996</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>-25.29</v>
-      </c>
-      <c r="B37">
-        <v>4.6900000000000004</v>
+      <c r="A37" s="5">
+        <v>-27.028000000000002</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.4978571428571428</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>-25.25</v>
-      </c>
-      <c r="B38">
-        <v>4.79</v>
+      <c r="A38" s="5">
+        <v>-26.958000000000002</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4.8730714285714285</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>-26.3</v>
-      </c>
-      <c r="B39">
-        <v>4.8899999999999997</v>
+      <c r="A39" s="5">
+        <v>-27.053000000000001</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4.8792857142857144</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>-26.15</v>
-      </c>
-      <c r="B40">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
+      <c r="A40" s="2">
+        <v>-22</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>-26.23</v>
-      </c>
-      <c r="B41">
-        <v>5.04</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>-26.27</v>
-      </c>
-      <c r="B42">
-        <v>5.01</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-25.69</v>
-      </c>
-      <c r="B43">
-        <v>6.09</v>
-      </c>
-      <c r="C43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>-25.61</v>
-      </c>
-      <c r="B44">
-        <v>5.74</v>
-      </c>
-      <c r="C44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-25.77</v>
-      </c>
-      <c r="B45">
-        <v>5.4</v>
-      </c>
-      <c r="C45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>-22</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A41" s="2">
         <v>-42</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B41" s="2">
         <v>20</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C41" s="3">
         <v>13</v>
       </c>
     </row>
